--- a/CEPP.xlsx
+++ b/CEPP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkim/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkim/Documents/GitHub/CollegeEntrancePassPredictor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450638C2-F940-254D-BB36-57E7D5C57256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C840378F-CA5F-C74A-8050-F1C143C2F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="26740" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,20 +604,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -970,8 +970,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1013,16 +1013,16 @@
       <c r="I2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="41" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" ht="61.75" customHeight="1">
@@ -1045,23 +1045,23 @@
         <v>0.72</v>
       </c>
       <c r="H3" s="45">
-        <f t="shared" ref="H3:H11" si="0">TRUNC(IF(3&lt;=D3/C3,C3*0.8,IF(2&gt;=D3/C3,C3*0.6,C3*(0.2*D3/C3+0.2))))</f>
+        <f>TRUNC(IF(3&lt;=D3/C3,C3*0.8,IF(2&gt;=D3/C3,C3*0.6,C3*(0.2*D3/C3+0.2))))</f>
         <v>20</v>
       </c>
       <c r="I3" s="45">
-        <f t="shared" ref="I3:I26" si="1">TRUNC(H3+H3*G3)</f>
+        <f>TRUNC(H3+H3*G3)</f>
         <v>34</v>
       </c>
       <c r="J3" s="46" t="str">
-        <f t="shared" ref="J3:J26" si="2">IF(H3&gt;=F3-E3,"최초합격권",IF(I3&lt;F3-E3,"불합격권","추가합격권"))</f>
+        <f t="shared" ref="J3:J8" si="0">IF(H3&gt;=F3-E3,"최초합격권",IF(I3&lt;F3-E3,"불합격권","추가합격권"))</f>
         <v>최초합격권</v>
       </c>
       <c r="K3" s="47">
-        <f t="shared" ref="K3:K26" si="3">IF(J3="최초합격권",(F3-E3)/H3,IF(J3="추가합격권",(F3-E3-H3)/(I3-H3),(F3-E3-I3)/(D3-I3)))</f>
+        <f t="shared" ref="K3:K8" si="1">IF(J3="최초합격권",(F3-E3)/H3,IF(J3="추가합격권",(F3-E3-H3)/(I3-H3),(F3-E3-I3)/(D3-I3)))</f>
         <v>0.95</v>
       </c>
       <c r="L3" s="48">
-        <f t="shared" ref="L3:L26" si="4">TRUNC(IF(3&lt;=D3/C3,(C3*0.8)*(1+G3)-F3+E3,IF(2&gt;=D3/C3,(C3*0.6)*(1+G3)-F3+E3,C3*(0.2*D3/C3+0.2)*(1+G3)-F3+E3)))</f>
+        <f t="shared" ref="L3:L8" si="2">TRUNC(IF(3&lt;=D3/C3,(C3*0.8)*(1+G3)-F3+E3,IF(2&gt;=D3/C3,(C3*0.6)*(1+G3)-F3+E3,C3*(0.2*D3/C3+0.2)*(1+G3)-F3+E3)))</f>
         <v>15</v>
       </c>
       <c r="M3" s="12"/>
@@ -1088,23 +1088,23 @@
         <v>2.3820000000000001</v>
       </c>
       <c r="H4" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H3:H8" si="3">TRUNC(IF(3&lt;=D4/C4,C4*0.8,IF(2&gt;=D4/C4,C4*0.6,C4*(0.2*D4/C4+0.2))))</f>
         <v>40</v>
       </c>
       <c r="I4" s="25">
+        <f t="shared" ref="I3:I8" si="4">TRUNC(H4+H4*G4)</f>
+        <v>135</v>
+      </c>
+      <c r="J4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>추가합격권</v>
+      </c>
+      <c r="K4" s="27">
         <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="J4" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>추가합격권</v>
-      </c>
-      <c r="K4" s="27">
-        <f t="shared" si="3"/>
         <v>0.16842105263157894</v>
       </c>
       <c r="L4" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="N4" s="5"/>
@@ -1131,23 +1131,23 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="H5" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="I5" s="25">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="J5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>추가합격권</v>
+      </c>
+      <c r="K5" s="27">
         <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="J5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>추가합격권</v>
-      </c>
-      <c r="K5" s="27">
-        <f t="shared" si="3"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="L5" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="N5" s="5"/>
@@ -1173,23 +1173,23 @@
         <v>1.294</v>
       </c>
       <c r="H6" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I6" s="25">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="J6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>최초합격권</v>
+      </c>
+      <c r="K6" s="27">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="J6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>최초합격권</v>
-      </c>
-      <c r="K6" s="27">
-        <f t="shared" si="3"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="L6" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="N6" s="5"/>
@@ -1215,23 +1215,23 @@
         <v>1.0629999999999999</v>
       </c>
       <c r="H7" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="I7" s="25">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="J7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>불합격권</v>
+      </c>
+      <c r="K7" s="27">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="J7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>불합격권</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="3"/>
         <v>0.10204081632653061</v>
       </c>
       <c r="L7" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="N7" s="5"/>
@@ -1257,23 +1257,23 @@
         <v>1.3</v>
       </c>
       <c r="H8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I8" s="25">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="J8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>추가합격권</v>
+      </c>
+      <c r="K8" s="27">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J8" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>추가합격권</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="L8" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N8" s="5"/>
@@ -1290,7 +1290,7 @@
         <v>195</v>
       </c>
       <c r="E9" s="51">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F9" s="51">
         <v>8</v>
@@ -1303,20 +1303,20 @@
         <v>4</v>
       </c>
       <c r="I9" s="33">
-        <f t="shared" ref="I9:I20" si="5">TRUNC(H9+H9*G9)</f>
+        <f t="shared" ref="I9" si="5">TRUNC(H9+H9*G9)</f>
         <v>7</v>
       </c>
       <c r="J9" s="34" t="str">
-        <f t="shared" ref="J9:J20" si="6">IF(H9&gt;=F9-E9,"최초합격권",IF(I9&lt;F9-E9,"불합격권","추가합격권"))</f>
-        <v>최초합격권</v>
+        <f t="shared" ref="J9" si="6">IF(H9&gt;=F9-E9,"최초합격권",IF(I9&lt;F9-E9,"불합격권","추가합격권"))</f>
+        <v>불합격권</v>
       </c>
       <c r="K9" s="35">
-        <f t="shared" ref="K9:K20" si="7">IF(J9="최초합격권",(F9-E9)/H9,IF(J9="추가합격권",(F9-E9-H9)/(I9-H9),(F9-E9-I9)/(D9-I9)))</f>
-        <v>-3</v>
+        <f t="shared" ref="K9" si="7">IF(J9="최초합격권",(F9-E9)/H9,IF(J9="추가합격권",(F9-E9-H9)/(I9-H9),(F9-E9-I9)/(D9-I9)))</f>
+        <v>5.3191489361702126E-3</v>
       </c>
       <c r="L9" s="36">
-        <f t="shared" ref="L9:L20" si="8">TRUNC(IF(3&lt;=D9/C9,(C9*0.8)*(1+G9)-F9+E9,IF(2&gt;=D9/C9,(C9*0.6)*(1+G9)-F9+E9,C9*(0.2*D9/C9+0.2)*(1+G9)-F9+E9)))</f>
-        <v>20</v>
+        <f t="shared" ref="L9" si="8">TRUNC(IF(3&lt;=D9/C9,(C9*0.8)*(1+G9)-F9+E9,IF(2&gt;=D9/C9,(C9*0.6)*(1+G9)-F9+E9,C9*(0.2*D9/C9+0.2)*(1+G9)-F9+E9)))</f>
+        <v>0</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="4"/>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="16" spans="1:16" ht="61.75" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="56"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="19" spans="1:15" ht="61.75" customHeight="1">
       <c r="A19" s="31"/>
-      <c r="B19" s="56"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1586,10 +1586,10 @@
       <c r="J1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="55"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="11" t="s">
         <v>21</v>
       </c>
